--- a/Question_Set2/Software skills/VMware.xlsx
+++ b/Question_Set2/Software skills/VMware.xlsx
@@ -16,23 +16,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'In your organization, there are 50 ESXi hosts managed by the vCenter Server. You want to have centralized, automated patch and version management.  Which component will allow you to achieve this goal?', 'ques_type': 2, 'options': ['VMware vSphere Update Manager', 'VMware vSphere AutoDeploy', 'VMware vRealize Orchestrator', 'VMware vRealize Operations Manager'], 'score': 'VMware vSphere Update Manager'}, {'title': 'In your work as a VMware administrator, you notice the below alarm on one of your virtual machines (VMs). The VM is working properly, and it is accessible to the users. To resolve this issue, you consolidated the virtual machine, but it failed to consolidate.  What is the best approach to resolve this issue?', 'ques_type': 2, 'options': ['Ignore the alarm since the VM is working properly.', 'Create new Snapshots to save the current state of the VM.', 'Check for VM locks to the virtual machine disk (VMDK) file and resolve it first.', 'Power down the VM as soon as possible.'], 'score': 'Check for VM locks to the virtual machine disk (VMDK) file and resolve it first.'}, {'title': 'During an ESXi host disconnection issue, you want to obtain troubleshooting information from the log files.   Which log files do you check in an ESXi host?', 'ques_type': 2, 'options': ['/vmfs/volumes/&amp;ltdatastore_name&amp;gt/&amp;ltVM_name&amp;gt/vmware.log', '/usr/lib/vmware/hosts.txt', '/etc/log/vpxa.log', '/var/log/vmware/hostd.log'], 'score': '/var/log/vmware/hostd.log'}, {'title': 'To provide network connectivity to virtual machines, what are the available network adapter (vNIC) types in VMware? Select all that apply', 'ques_type': 15, 'options': ['PCI NIC', 'E5000', 'E1000', 'BNC or RJ45', 'VMXNET 3'], 'score': ['E1000', 'VMXNET 3']}]</t>
+    <t>questions = [
+    {
+        "title": "In your organization, there are 50 ESXi hosts managed by the vCenter Server. You want to have centralized, automated patch and version management.  Which component will allow you to achieve this goal?",
+        "ques_type": 2,
+        "options": [
+            "VMware vSphere Update Manager",
+            "VMware vSphere AutoDeploy",
+            "VMware vRealize Orchestrator",
+            "VMware vRealize Operations Manager"
+        ],
+        "score": "VMware vSphere Update Manager"
+    },
+    {
+        "title": "In your work as a VMware administrator, you notice the below alarm on one of your virtual machines (VMs). The VM is working properly, and it is accessible to the users. To resolve this issue, you consolidated the virtual machine, but it failed to consolidate.  What is the best approach to resolve this issue?",
+        "ques_type": 2,
+        "options": [
+            "Ignore the alarm since the VM is working properly.",
+            "Create new Snapshots to save the current state of the VM.",
+            "Check for VM locks to the virtual machine disk (VMDK) file and resolve it first.",
+            "Power down the VM as soon as possible."
+        ],
+        "score": "Check for VM locks to the virtual machine disk (VMDK) file and resolve it first."
+    },
+    {
+        "title": "During an ESXi host disconnection issue, you want to obtain troubleshooting information from the log files.   Which log files do you check in an ESXi host?",
+        "ques_type": 2,
+        "options": [
+            "/vmfs/volumes/&amp;ltdatastore_name&amp;gt/&amp;ltVM_name&amp;gt/vmware.log",
+            "/usr/lib/vmware/hosts.txt",
+            "/etc/log/vpxa.log",
+            "/var/log/vmware/hostd.log"
+        ],
+        "score": "/var/log/vmware/hostd.log"
+    },
+    {
+        "title": "To provide network connectivity to virtual machines, what are the available network adapter (vNIC) types in VMware? Select all that apply",
+        "ques_type": 15,
+        "options": [
+            "PCI NIC",
+            "E5000",
+            "E1000",
+            "BNC or RJ45",
+            "VMXNET 3"
+        ],
+        "score": [
+            "E1000",
+            "VMXNET 3"
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +97,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
